--- a/crawler_engine/result.xlsx
+++ b/crawler_engine/result.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Week1</t>
+          <t>['2/20']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Week1</t>
+          <t>['2/20']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/crawler_engine/result.xlsx
+++ b/crawler_engine/result.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['2/20']</t>
+          <t>Week1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['2/20']</t>
+          <t>Week1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
